--- a/thesis/Experiment/ZNE multiplatform device experiments simuq2/results/RBZNE - Quadratic fit with extra point and 2 points only/summary_data.xlsx
+++ b/thesis/Experiment/ZNE multiplatform device experiments simuq2/results/RBZNE - Quadratic fit with extra point and 2 points only/summary_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Tasks\NCSU\3rd Sem courses\Thesis\SimuQ\thesis\Experiment\ZNE multiplatform device experiments simuq2\results\RBZNE - Quadratic fit with extra point and 2 points only\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amey/Desktop/Tasks/Thesis/SimuQ/thesis/Experiment/ZNE multiplatform device experiments simuq2/results/RBZNE - Quadratic fit with extra point and 2 points only/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731FE44-E725-446E-B6EF-843C40456F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC48BA61-20B9-1C41-80BF-B5030FDD5E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -33,28 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -142,6 +120,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,17 +469,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="5" width="19" customWidth="1"/>
     <col min="6" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
@@ -513,7 +492,7 @@
     <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -619,7 +598,7 @@
         <v>64.829814763004407</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -672,7 +651,7 @@
         <v>53.282615723592357</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -725,7 +704,7 @@
         <v>49.031693271248081</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -778,7 +757,7 @@
         <v>48.228632179577929</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -831,7 +810,7 @@
         <v>31.608399116292158</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -884,7 +863,7 @@
         <v>31.976342691710631</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -937,7 +916,7 @@
         <v>11.53584574101634</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -990,7 +969,7 @@
         <v>15.132491807351551</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1043,7 +1022,7 @@
         <v>34.559013813289837</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1096,7 +1075,7 @@
         <v>9.2340367480441934</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1149,7 +1128,7 @@
         <v>15.52364859430485</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -1202,7 +1181,7 @@
         <v>-21.855301236818029</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -1255,7 +1234,7 @@
         <v>23.76053133332687</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -1308,7 +1287,7 @@
         <v>17.83650875354196</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -1361,7 +1340,7 @@
         <v>19.861054843789692</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -1414,7 +1393,7 @@
         <v>13.15691157727094</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1467,7 +1446,7 @@
         <v>14.41364218556412</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1520,7 +1499,7 @@
         <v>1.534636714361743</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1573,7 +1552,7 @@
         <v>-2.1838203982135309</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -1626,7 +1605,7 @@
         <v>1.097434560455367</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -1679,7 +1658,7 @@
         <v>7.6011193970878299</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -1732,7 +1711,7 @@
         <v>0.99164986355031437</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -1785,7 +1764,7 @@
         <v>-7.110015839505988</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -1838,7 +1817,7 @@
         <v>0.25790771007685881</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -1891,7 +1870,7 @@
         <v>12.762776206795801</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -1944,7 +1923,7 @@
         <v>10.06626923636578</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -1997,7 +1976,7 @@
         <v>14.89984176049396</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>8</v>
       </c>
@@ -2050,7 +2029,7 @@
         <v>17.354984427799899</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>8</v>
       </c>
@@ -2103,7 +2082,7 @@
         <v>10.34043327777057</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>8</v>
       </c>
@@ -2156,7 +2135,7 @@
         <v>7.3628627936082953</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>8</v>
       </c>
@@ -2209,7 +2188,7 @@
         <v>7.6407784951466908</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>8</v>
       </c>
@@ -2262,7 +2241,7 @@
         <v>1.2322207175495961</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>8</v>
       </c>
@@ -2315,7 +2294,7 @@
         <v>-2.3339653147264872</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>8</v>
       </c>
@@ -2368,7 +2347,7 @@
         <v>2.6422430318708039</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>8</v>
       </c>
@@ -2421,7 +2400,7 @@
         <v>9.8967033932297088</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>8</v>
       </c>
@@ -2474,7 +2453,7 @@
         <v>3.6170769269265501</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>10</v>
       </c>
@@ -2527,7 +2506,7 @@
         <v>1.8337353047762279</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>10</v>
       </c>
@@ -2580,7 +2559,7 @@
         <v>-0.37280979145635429</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>10</v>
       </c>
@@ -2633,7 +2612,7 @@
         <v>8.3437080362913141E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>10</v>
       </c>
@@ -2686,7 +2665,7 @@
         <v>-6.777686892657854E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>10</v>
       </c>
@@ -2739,7 +2718,7 @@
         <v>-0.31439820991972012</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>10</v>
       </c>
@@ -2792,7 +2771,7 @@
         <v>5.9025949941627269</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>10</v>
       </c>
@@ -2845,7 +2824,7 @@
         <v>5.374132081322176</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>10</v>
       </c>
@@ -2898,7 +2877,7 @@
         <v>2.0651674170085221</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>10</v>
       </c>
@@ -2951,7 +2930,7 @@
         <v>6.824267644608681</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>10</v>
       </c>
@@ -3004,7 +2983,7 @@
         <v>2.6217621208231501</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>10</v>
       </c>
@@ -3057,7 +3036,7 @@
         <v>-1.2841145598968491</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>10</v>
       </c>
@@ -3110,7 +3089,7 @@
         <v>-0.88630149530377622</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -3163,7 +3142,7 @@
         <v>19.53916533589787</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -3216,7 +3195,7 @@
         <v>9.6701026985165068</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -3269,7 +3248,7 @@
         <v>4.8212411606055774</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -3322,7 +3301,7 @@
         <v>-3.0324677582751409</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -3375,7 +3354,7 @@
         <v>-8.0463732217046839</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -3428,7 +3407,7 @@
         <v>-0.85620362428580132</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -3481,7 +3460,7 @@
         <v>-0.47139925764775609</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>4</v>
       </c>
@@ -3534,7 +3513,7 @@
         <v>-20.888437297758909</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>4</v>
       </c>
@@ -3587,7 +3566,7 @@
         <v>-40.368175341990757</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -3640,7 +3619,7 @@
         <v>-50.464625142807719</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -3693,7 +3672,7 @@
         <v>-13.391752024022599</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -3746,7 +3725,7 @@
         <v>9.9058821966819917</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -3799,7 +3778,7 @@
         <v>11.112869060694001</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>6</v>
       </c>
@@ -3852,7 +3831,7 @@
         <v>5.633497982214152</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>6</v>
       </c>
@@ -3905,7 +3884,7 @@
         <v>4.2758226139107034</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>6</v>
       </c>
@@ -3958,7 +3937,7 @@
         <v>1.242438160807867</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>6</v>
       </c>
@@ -4011,7 +3990,7 @@
         <v>-4.2477401817840139</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>6</v>
       </c>
@@ -4064,7 +4043,7 @@
         <v>-5.0972331631077008</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>6</v>
       </c>
@@ -4117,7 +4096,7 @@
         <v>-11.231119665558509</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>6</v>
       </c>
@@ -4170,7 +4149,7 @@
         <v>-10.35812811878518</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>6</v>
       </c>
@@ -4223,7 +4202,7 @@
         <v>-8.0524171578050456</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>6</v>
       </c>
@@ -4276,7 +4255,7 @@
         <v>-12.34099744810192</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>6</v>
       </c>
@@ -4329,7 +4308,7 @@
         <v>-10.04442437732413</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>6</v>
       </c>
@@ -4382,7 +4361,7 @@
         <v>4.8073522082432261</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>8</v>
       </c>
@@ -4435,7 +4414,7 @@
         <v>9.1408833525075384</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>8</v>
       </c>
@@ -4488,7 +4467,7 @@
         <v>6.1106085001959149</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>8</v>
       </c>
@@ -4541,7 +4520,7 @@
         <v>9.5461736589210933</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>8</v>
       </c>
@@ -4594,7 +4573,7 @@
         <v>3.8741810195702389</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>8</v>
       </c>
@@ -4647,7 +4626,7 @@
         <v>2.0571429536198491</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>8</v>
       </c>
@@ -4700,7 +4679,7 @@
         <v>-4.1008499998570862</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>8</v>
       </c>
@@ -4753,7 +4732,7 @@
         <v>-7.8839504195252568</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>8</v>
       </c>
@@ -4806,7 +4785,7 @@
         <v>-9.9982807168581829</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>8</v>
       </c>
@@ -4859,7 +4838,7 @@
         <v>-9.6165629492529554</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>8</v>
       </c>
@@ -4912,7 +4891,7 @@
         <v>-10.733685384631119</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>8</v>
       </c>
@@ -4965,7 +4944,7 @@
         <v>-8.2593064413296844</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>8</v>
       </c>
@@ -5018,7 +4997,7 @@
         <v>2.1516544110462918</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>10</v>
       </c>
@@ -5071,7 +5050,7 @@
         <v>7.6274377874353867</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>10</v>
       </c>
@@ -5124,7 +5103,7 @@
         <v>4.3736796247069316</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>10</v>
       </c>
@@ -5177,7 +5156,7 @@
         <v>10.03569008290672</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>10</v>
       </c>
@@ -5230,7 +5209,7 @@
         <v>4.8348060400629196</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>10</v>
       </c>
@@ -5283,7 +5262,7 @@
         <v>0.24925599391686429</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>10</v>
       </c>
@@ -5336,7 +5315,7 @@
         <v>-1.627130633873304</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>10</v>
       </c>
@@ -5389,7 +5368,7 @@
         <v>-4.4159257149268454</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>10</v>
       </c>
@@ -5442,7 +5421,7 @@
         <v>-3.8464841964922951</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>10</v>
       </c>
@@ -5495,7 +5474,7 @@
         <v>-4.3481761809212216</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>10</v>
       </c>
@@ -5548,7 +5527,7 @@
         <v>-2.502237798766759</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>10</v>
       </c>
@@ -5601,7 +5580,7 @@
         <v>-8.6958222159243768</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>10</v>
       </c>
@@ -5654,7 +5633,7 @@
         <v>-1.769641430315225</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>4</v>
       </c>
@@ -5707,7 +5686,7 @@
         <v>13.915200649133119</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>4</v>
       </c>
@@ -5760,7 +5739,7 @@
         <v>13.348614067503309</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>4</v>
       </c>
@@ -5813,7 +5792,7 @@
         <v>11.86798956520002</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>4</v>
       </c>
@@ -5866,7 +5845,7 @@
         <v>22.73157850492597</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>4</v>
       </c>
@@ -5919,7 +5898,7 @@
         <v>33.993095215783661</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>4</v>
       </c>
@@ -5972,7 +5951,7 @@
         <v>27.445954616804791</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>4</v>
       </c>
@@ -6025,7 +6004,7 @@
         <v>38.95322065794231</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>4</v>
       </c>
@@ -6078,7 +6057,7 @@
         <v>32.245910810316438</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>4</v>
       </c>
@@ -6131,7 +6110,7 @@
         <v>21.014866626679758</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>4</v>
       </c>
@@ -6184,7 +6163,7 @@
         <v>30.694608049784179</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>4</v>
       </c>
@@ -6237,7 +6216,7 @@
         <v>-2.5268325951567072</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>4</v>
       </c>
@@ -6290,7 +6269,7 @@
         <v>2.3899849535690749</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>6</v>
       </c>
@@ -6343,7 +6322,7 @@
         <v>-2.3102276851168169</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>6</v>
       </c>
@@ -6396,7 +6375,7 @@
         <v>11.55312459351596</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>6</v>
       </c>
@@ -6449,7 +6428,7 @@
         <v>-2.241256293416384</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>6</v>
       </c>
@@ -6502,7 +6481,7 @@
         <v>-6.0081753268844533</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>6</v>
       </c>
@@ -6555,7 +6534,7 @@
         <v>1.889016721224672</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>6</v>
       </c>
@@ -6608,7 +6587,7 @@
         <v>3.6214631545403129</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>6</v>
       </c>
@@ -6661,7 +6640,7 @@
         <v>-5.6957800620714902</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>6</v>
       </c>
@@ -6714,7 +6693,7 @@
         <v>5.7992941444840431</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>6</v>
       </c>
@@ -6767,7 +6746,7 @@
         <v>-12.393923115139071</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>6</v>
       </c>
@@ -6820,7 +6799,7 @@
         <v>-20.18961667194958</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>6</v>
       </c>
@@ -6873,7 +6852,7 @@
         <v>-9.9162159866455539</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>6</v>
       </c>
@@ -6926,7 +6905,7 @@
         <v>14.430680525840209</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>8</v>
       </c>
@@ -6979,7 +6958,7 @@
         <v>10.64931729582799</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>8</v>
       </c>
@@ -7032,7 +7011,7 @@
         <v>9.0990415592456717</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>8</v>
       </c>
@@ -7085,7 +7064,7 @@
         <v>17.149845748285902</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>8</v>
       </c>
@@ -7138,7 +7117,7 @@
         <v>22.077137237424029</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>8</v>
       </c>
@@ -7191,7 +7170,7 @@
         <v>8.6218063094058266</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>8</v>
       </c>
@@ -7244,7 +7223,7 @@
         <v>7.1624907329403351</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>8</v>
       </c>
@@ -7297,7 +7276,7 @@
         <v>6.5175355469691523</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>8</v>
       </c>
@@ -7350,7 +7329,7 @@
         <v>8.8607511300639406</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>8</v>
       </c>
@@ -7403,7 +7382,7 @@
         <v>11.860343688610619</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>8</v>
       </c>
@@ -7456,7 +7435,7 @@
         <v>2.4500665203944441</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>8</v>
       </c>
@@ -7509,7 +7488,7 @@
         <v>-5.3837955646313951</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>8</v>
       </c>
@@ -7562,7 +7541,7 @@
         <v>9.6989516205321973</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>10</v>
       </c>
@@ -7615,7 +7594,7 @@
         <v>7.154993468820928</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>10</v>
       </c>
@@ -7668,7 +7647,7 @@
         <v>12.477268435404611</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>10</v>
       </c>
@@ -7721,7 +7700,7 @@
         <v>4.1055715533739292</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>10</v>
       </c>
@@ -7774,7 +7753,7 @@
         <v>0.16814174503252971</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>10</v>
       </c>
@@ -7827,7 +7806,7 @@
         <v>-2.1577343047367972</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>10</v>
       </c>
@@ -7880,7 +7859,7 @@
         <v>-1.597501453729804</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>10</v>
       </c>
@@ -7933,7 +7912,7 @@
         <v>-2.3499085932491499</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>10</v>
       </c>
@@ -7986,7 +7965,7 @@
         <v>-8.0746102039999954</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>10</v>
       </c>
@@ -8039,7 +8018,7 @@
         <v>-5.2308522752244837</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>10</v>
       </c>
@@ -8092,7 +8071,7 @@
         <v>-7.5333007902852769</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>10</v>
       </c>
@@ -8145,7 +8124,7 @@
         <v>-1.603532933371868</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>10</v>
       </c>
@@ -8198,7 +8177,7 @@
         <v>2.0381968610464392</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>4</v>
       </c>
@@ -8251,7 +8230,7 @@
         <v>12.049945839627579</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>4</v>
       </c>
@@ -8304,7 +8283,7 @@
         <v>14.87184929985502</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>4</v>
       </c>
@@ -8357,7 +8336,7 @@
         <v>17.554784110519851</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>4</v>
       </c>
@@ -8410,7 +8389,7 @@
         <v>11.874587021661281</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>4</v>
       </c>
@@ -8463,7 +8442,7 @@
         <v>17.16973647958347</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>4</v>
       </c>
@@ -8516,7 +8495,7 @@
         <v>13.86583696544632</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>4</v>
       </c>
@@ -8569,7 +8548,7 @@
         <v>11.76246234014474</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>4</v>
       </c>
@@ -8622,7 +8601,7 @@
         <v>14.937229798002271</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>4</v>
       </c>
@@ -8675,7 +8654,7 @@
         <v>13.019189309042099</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>4</v>
       </c>
@@ -8728,7 +8707,7 @@
         <v>21.944555118264159</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>4</v>
       </c>
@@ -8781,7 +8760,7 @@
         <v>4.5420107229575981</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>4</v>
       </c>
@@ -8834,7 +8813,7 @@
         <v>18.937303133751492</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>6</v>
       </c>
@@ -8887,7 +8866,7 @@
         <v>13.79555887152431</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>6</v>
       </c>
@@ -8940,7 +8919,7 @@
         <v>11.862731888349501</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>6</v>
       </c>
@@ -8993,7 +8972,7 @@
         <v>13.045213631648229</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>6</v>
       </c>
@@ -9046,7 +9025,7 @@
         <v>15.09998777446787</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>6</v>
       </c>
@@ -9099,7 +9078,7 @@
         <v>7.317444287276663</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>6</v>
       </c>
@@ -9152,7 +9131,7 @@
         <v>9.206127211241542</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>6</v>
       </c>
@@ -9205,7 +9184,7 @@
         <v>-0.22275348880071391</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>6</v>
       </c>
@@ -9258,7 +9237,7 @@
         <v>-1.026863596160748</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>6</v>
       </c>
@@ -9311,7 +9290,7 @@
         <v>2.2066314459555758</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>6</v>
       </c>
@@ -9364,7 +9343,7 @@
         <v>-4.5059961263779957</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>6</v>
       </c>
@@ -9417,7 +9396,7 @@
         <v>14.25568441838856</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>6</v>
       </c>
@@ -9470,7 +9449,7 @@
         <v>20.23421442806676</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>8</v>
       </c>
@@ -9523,7 +9502,7 @@
         <v>9.4295337359803622</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>8</v>
       </c>
@@ -9576,7 +9555,7 @@
         <v>10.23690547150829</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>8</v>
       </c>
@@ -9629,7 +9608,7 @@
         <v>6.158667594350808</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>8</v>
       </c>
@@ -9682,7 +9661,7 @@
         <v>6.1048534936275693</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>8</v>
       </c>
@@ -9735,7 +9714,7 @@
         <v>9.2346466856256626</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>8</v>
       </c>
@@ -9788,7 +9767,7 @@
         <v>2.629259487631098</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>8</v>
       </c>
@@ -9841,7 +9820,7 @@
         <v>2.11143523726918</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>8</v>
       </c>
@@ -9894,7 +9873,7 @@
         <v>7.3366051103147427</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>8</v>
       </c>
@@ -9947,7 +9926,7 @@
         <v>8.4784659914940033</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>8</v>
       </c>
@@ -10000,7 +9979,7 @@
         <v>-6.4111790314235568</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>8</v>
       </c>
@@ -10053,7 +10032,7 @@
         <v>-3.96876304292979</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>8</v>
       </c>
@@ -10106,7 +10085,7 @@
         <v>0.2236151973375316</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>10</v>
       </c>
@@ -10159,7 +10138,7 @@
         <v>5.0330270135481481</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>10</v>
       </c>
@@ -10212,7 +10191,7 @@
         <v>5.119389236533169</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>10</v>
       </c>
@@ -10265,7 +10244,7 @@
         <v>8.7658842809211244</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>10</v>
       </c>
@@ -10318,7 +10297,7 @@
         <v>6.2885716064382509</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>10</v>
       </c>
@@ -10371,7 +10350,7 @@
         <v>2.443351507304699</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>10</v>
       </c>
@@ -10424,7 +10403,7 @@
         <v>0.13316013913844549</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>10</v>
       </c>
@@ -10477,7 +10456,7 @@
         <v>2.1941223015964089</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>10</v>
       </c>
@@ -10530,7 +10509,7 @@
         <v>0.53156478750425862</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>10</v>
       </c>
@@ -10583,7 +10562,7 @@
         <v>-0.3684252804490013</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>10</v>
       </c>
@@ -10636,7 +10615,7 @@
         <v>-0.13104720931231079</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>10</v>
       </c>
@@ -10689,7 +10668,7 @@
         <v>-5.5519018345048918</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>10</v>
       </c>
@@ -10742,7 +10721,7 @@
         <v>2.5500410746348292</v>
       </c>
     </row>
-    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10761,7 +10740,7 @@
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
     </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>21</v>
       </c>
@@ -10794,42 +10773,11 @@
         <v>1.047952407631193</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F198" cm="1">
-        <f t="array" ref="F198">GEOMEAN(1+F50:F61/100)</f>
-        <v>1.0152666846680165</v>
-      </c>
-      <c r="H198" cm="1">
-        <f t="array" ref="H198">GEOMEAN(1+H50:H61/100)</f>
-        <v>1.0068309875866752</v>
-      </c>
-      <c r="J198" cm="1">
-        <f t="array" ref="J198">GEOMEAN(1+J50:J61/100)</f>
-        <v>0.97018396511894345</v>
-      </c>
-      <c r="M198" cm="1">
-        <f t="array" ref="M198">GEOMEAN(1+M50:M61/100)</f>
-        <v>0.96786016078035009</v>
-      </c>
-      <c r="O198" cm="1">
-        <f t="array" ref="O198">GEOMEAN(1+O50:O61/100)</f>
-        <v>0.99970475972323525</v>
-      </c>
-      <c r="Q198" cm="1">
-        <f t="array" ref="Q198">GEOMEAN(1+Q50:Q61/100)</f>
-        <v>0.8963394479288106</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:C195" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="ibm_brisbane"/>
+        <filter val="ibm_nazca"/>
       </filters>
     </filterColumn>
   </autoFilter>
